--- a/Reports/sub/日本語.xlsx
+++ b/Reports/sub/日本語.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -87,7 +87,7 @@
     <t>007</t>
   </si>
   <si>
-    <t>What is appear in test?</t>
+    <t>gfxvrjenhtfepklfpplc</t>
   </si>
   <si>
     <t>Check if application is available on phone</t>
@@ -102,7 +102,10 @@
     <t>10/19/21 04:38:32</t>
   </si>
   <si>
-    <t>085b85f585873e9b0a701ed33618fb49ec55fe3a</t>
+    <t>10/19/21 04:59:39</t>
+  </si>
+  <si>
+    <t>9d217010bda62771c2303c6f55e0d929a6a549da</t>
   </si>
   <si>
     <t>Flash ROM X5</t>
@@ -111,7 +114,7 @@
     <t>Restarttt done</t>
   </si>
   <si>
-    <t xml:space="preserve">-1
+    <t xml:space="preserve">1 2
 </t>
   </si>
   <si>
@@ -628,13 +631,13 @@
         <v>15</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -642,19 +645,19 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -682,7 +685,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">

--- a/Reports/sub/日本語.xlsx
+++ b/Reports/sub/日本語.xlsx
@@ -105,7 +105,7 @@
     <t>10/19/21 04:59:39</t>
   </si>
   <si>
-    <t>9d217010bda62771c2303c6f55e0d929a6a549da</t>
+    <t>aefeba7cb24d2d7b26bf1fcfa7b1920d76173127</t>
   </si>
   <si>
     <t>Flash ROM X5</t>
@@ -114,7 +114,7 @@
     <t>Restarttt done</t>
   </si>
   <si>
-    <t xml:space="preserve">1 2
+    <t xml:space="preserve">1 3
 </t>
   </si>
   <si>
@@ -673,13 +673,13 @@
         <v>18</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>44907.50693287037</v>
+        <v>44907.507627314815</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>19</v>

--- a/Reports/sub/日本語.xlsx
+++ b/Reports/sub/日本語.xlsx
@@ -105,7 +105,7 @@
     <t>10/19/21 04:59:39</t>
   </si>
   <si>
-    <t>aefeba7cb24d2d7b26bf1fcfa7b1920d76173127</t>
+    <t>4f15b882eb1f77974813f0ce85ee65a6cba9cd55</t>
   </si>
   <si>
     <t>Flash ROM X5</t>
@@ -114,7 +114,7 @@
     <t>Restarttt done</t>
   </si>
   <si>
-    <t xml:space="preserve">1 3
+    <t xml:space="preserve">1- 4
 </t>
   </si>
   <si>
@@ -679,7 +679,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>44907.507627314815</v>
+        <v>44907.50832175926</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>19</v>

--- a/Reports/sub/日本語.xlsx
+++ b/Reports/sub/日本語.xlsx
@@ -105,7 +105,7 @@
     <t>10/19/21 04:59:39</t>
   </si>
   <si>
-    <t>4f15b882eb1f77974813f0ce85ee65a6cba9cd55</t>
+    <t>673a170f77677edbb22c401053b77df14754a255</t>
   </si>
   <si>
     <t>Flash ROM X5</t>
@@ -114,7 +114,7 @@
     <t>Restarttt done</t>
   </si>
   <si>
-    <t xml:space="preserve">1- 4
+    <t xml:space="preserve">1-5
 </t>
   </si>
   <si>
@@ -679,7 +679,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>44907.50832175926</v>
+        <v>44907.5090162037</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>19</v>

--- a/Reports/sub/日本語.xlsx
+++ b/Reports/sub/日本語.xlsx
@@ -105,7 +105,7 @@
     <t>10/19/21 04:59:39</t>
   </si>
   <si>
-    <t>673a170f77677edbb22c401053b77df14754a255</t>
+    <t>8db456e253afe1e5df6154512751117428e8957d</t>
   </si>
   <si>
     <t>Flash ROM X5</t>
@@ -114,7 +114,7 @@
     <t>Restarttt done</t>
   </si>
   <si>
-    <t xml:space="preserve">1-5
+    <t xml:space="preserve">1-6
 </t>
   </si>
   <si>
@@ -679,7 +679,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>44907.5090162037</v>
+        <v>44907.50971064815</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>19</v>

--- a/Reports/sub/日本語.xlsx
+++ b/Reports/sub/日本語.xlsx
@@ -105,7 +105,7 @@
     <t>10/19/21 04:59:39</t>
   </si>
   <si>
-    <t>8db456e253afe1e5df6154512751117428e8957d</t>
+    <t>7bfb8ffb8d568b2de1671680890d0b5f40b6e19b</t>
   </si>
   <si>
     <t>Flash ROM X5</t>
@@ -114,7 +114,7 @@
     <t>Restarttt done</t>
   </si>
   <si>
-    <t xml:space="preserve">1-6
+    <t xml:space="preserve">1-7
 </t>
   </si>
   <si>
@@ -679,7 +679,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>44907.50971064815</v>
+        <v>44907.510405092595</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>19</v>

--- a/Reports/sub/日本語.xlsx
+++ b/Reports/sub/日本語.xlsx
@@ -87,7 +87,7 @@
     <t>007</t>
   </si>
   <si>
-    <t>gfxvrjenhtfepklfpplc</t>
+    <t>hitsvqxmcgnmmjrewquq</t>
   </si>
   <si>
     <t>Check if application is available on phone</t>
@@ -102,10 +102,10 @@
     <t>10/19/21 04:38:32</t>
   </si>
   <si>
-    <t>10/19/21 04:59:39</t>
-  </si>
-  <si>
-    <t>7bfb8ffb8d568b2de1671680890d0b5f40b6e19b</t>
+    <t>10/19/21 07:37:48</t>
+  </si>
+  <si>
+    <t>e23f28c8521cf2b79f5b0ba78925f94e755d316c</t>
   </si>
   <si>
     <t>Flash ROM X5</t>
@@ -114,7 +114,7 @@
     <t>Restarttt done</t>
   </si>
   <si>
-    <t xml:space="preserve">1-7
+    <t xml:space="preserve">1-8
 </t>
   </si>
   <si>
@@ -679,7 +679,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>44907.510405092595</v>
+        <v>44907.511099537034</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>19</v>
